--- a/biology/Zoologie/Helix_lucorum/Helix_lucorum.xlsx
+++ b/biology/Zoologie/Helix_lucorum/Helix_lucorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helix lucorum est une espèce d'escargots (des gastéropodes terrestres) de la famille des Helicidae et du genre  Helix. Il est originaire des Balkans ou de Turquie. Il est souvent vendu, à tort, comme escargot de Bourgogne. La grande variabilité des stries sur la coquille n'est pas un critère fiable de reconnaissance. 
 </t>
@@ -511,11 +523,48 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Helix lucorum a été décrite par le naturaliste suédois Carl von Linné en 1758[1].
-Synonymie
-Helix anaphora Westerlund, 1889
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Helix lucorum a été décrite par le naturaliste suédois Carl von Linné en 1758.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Helix_lucorum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_lucorum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Helix anaphora Westerlund, 1889
 Helix annosa Mascarini, 1892
 Helix atrocincta Bourguignat, 1883
 Helix candida Mascarini, 1892
@@ -526,37 +575,73 @@
 Helix straminea Briganti, 1825
 Helix straminiformis Bourguignat, 1876
 Helix virago Bourguignat, 1883
-Helix yleobia Bourguignat, 1883
-Nom vernaculaire
-Escargot turc</t>
+Helix yleobia Bourguignat, 1883</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Helix_lucorum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Helix_lucorum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Escargot turc</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helix_lucorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helix_lucorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'escargot turc est un gastéropode pulmoné de grandes dimensions (35 à 40 mm), à coquille globuleuse et épaisse.
 La spire est brève et déprimée avec rapport hauteur/diamètre inférieur à 1.
@@ -566,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Helix_lucorum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Helix_lucorum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit principalement en altitudes moyennes et basses, exceptionnellement à des endroits élevés (jusqu'à 1600 m). Est présente surtout en biotopes arborés d’arbustes à larges feuilles mûris ou de cèdres, et en berges, se retrouve communément même le long des haies en marges de lieux cultivés, dans les creux de murets et de murs rocheux.
 </t>
